--- a/Test Name Files.xlsx
+++ b/Test Name Files.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rymic\Documents\Python\Projects\Custom Book ID\Test Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rymic\Documents\Python\Projects\Custom Book ID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984EADAF-55E5-4059-A39E-5D6635325879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DDBB83-60DB-404F-8B8A-FD7930085482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16575" yWindow="5445" windowWidth="13875" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Name Files" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Author</t>
   </si>
@@ -98,13 +98,16 @@
   </si>
   <si>
     <t>101 Dalmations</t>
+  </si>
+  <si>
+    <t>Custom ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +119,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -153,11 +164,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,15 +484,18 @@
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -488,7 +503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -496,7 +511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -504,7 +519,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -512,7 +527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -520,7 +535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -528,7 +543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -536,7 +551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -544,7 +559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -552,7 +567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -560,7 +575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -568,7 +583,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -576,7 +591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>

--- a/Test Name Files.xlsx
+++ b/Test Name Files.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rymic\Documents\Python\Projects\Custom Book ID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96DDBB83-60DB-404F-8B8A-FD7930085482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442759B3-DA4F-42F3-AE5F-AE54DB33B475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16575" yWindow="5445" windowWidth="13875" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Name Files" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -28,6 +28,9 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Custom ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schwab, V. E. </t>
   </si>
   <si>
@@ -98,9 +101,6 @@
   </si>
   <si>
     <t>101 Dalmations</t>
-  </si>
-  <si>
-    <t>Custom ID</t>
   </si>
 </sst>
 </file>
@@ -475,13 +475,14 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C2" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -492,111 +493,111 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
